--- a/docs/Tutorial/img/DataPortals_Model_ETL_Logs.xlsx
+++ b/docs/Tutorial/img/DataPortals_Model_ETL_Logs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andyv\Downloads\DataPortals Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC31389-2F5B-4456-B711-5455C0DC0817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BEA16B-2743-4DBB-B893-706B31B356F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="1338" windowWidth="17280" windowHeight="9102" tabRatio="828" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2010" yWindow="1338" windowWidth="17280" windowHeight="9102" tabRatio="828" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="51" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="81">
   <si>
     <t>Name</t>
   </si>
@@ -222,9 +222,6 @@
   </si>
   <si>
     <t>Schema</t>
-  </si>
-  <si>
-    <t>Duration</t>
   </si>
   <si>
     <t>ETL_Logs</t>
@@ -3212,7 +3209,7 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3244,7 +3241,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -3385,19 +3382,19 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
         <v>69</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>70</v>
-      </c>
-      <c r="D2" t="s">
-        <v>71</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3616,38 +3613,38 @@
     </row>
     <row r="8" spans="1:19" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3712,10 +3709,10 @@
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I2" s="10"/>
     </row>
@@ -3813,11 +3810,9 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -3983,29 +3978,15 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E9" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4030,52 +4011,52 @@
   <sheetData>
     <row r="1" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.55000000000000004">

--- a/docs/Tutorial/img/DataPortals_Model_ETL_Logs.xlsx
+++ b/docs/Tutorial/img/DataPortals_Model_ETL_Logs.xlsx
@@ -2,33 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andyv\Downloads\DataPortals Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BEA16B-2743-4DBB-B893-706B31B356F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305A4BC2-77E7-4962-900A-6E31FA72B427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="1338" windowWidth="17280" windowHeight="9102" tabRatio="828" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" activeTab="1" xr2:uid="{95D02EF9-F916-4F93-B3DB-5EB30412A88C}"/>
   </bookViews>
   <sheets>
-    <sheet name="ReadMe" sheetId="51" r:id="rId1"/>
-    <sheet name="Master" sheetId="24" r:id="rId2"/>
-    <sheet name="Master.settings" sheetId="56" r:id="rId3"/>
-    <sheet name="CSS" sheetId="57" r:id="rId4"/>
-    <sheet name="LogManager" sheetId="1" r:id="rId5"/>
-    <sheet name="Workload" sheetId="59" r:id="rId6"/>
-    <sheet name="ExtractTask" sheetId="61" r:id="rId7"/>
-    <sheet name="LoadTask" sheetId="64" r:id="rId8"/>
-    <sheet name="Categories" sheetId="58" r:id="rId9"/>
+    <sheet name="ReadMe" sheetId="1" r:id="rId1"/>
+    <sheet name="Master" sheetId="5" r:id="rId2"/>
+    <sheet name="Master.settings" sheetId="2" r:id="rId3"/>
+    <sheet name="CSS" sheetId="3" r:id="rId4"/>
+    <sheet name="LogManager" sheetId="4" r:id="rId5"/>
+    <sheet name="Workload" sheetId="7" r:id="rId6"/>
+    <sheet name="ExtractTask" sheetId="8" r:id="rId7"/>
+    <sheet name="LoadTask" sheetId="10" r:id="rId8"/>
+    <sheet name="Categories" sheetId="6" r:id="rId9"/>
   </sheets>
-  <definedNames>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="7" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="2" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -48,21 +42,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="81">
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>DisplayName</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>ControlType</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>DisplayName</t>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Option</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>Columns</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>VisibilityCondition</t>
+  </si>
+  <si>
+    <t>StartLabel</t>
+  </si>
+  <si>
+    <t>EndLabel</t>
+  </si>
+  <si>
+    <t>DefaultValue</t>
+  </si>
+  <si>
+    <t>OptionController</t>
+  </si>
+  <si>
+    <t>RefreshComponents</t>
   </si>
   <si>
     <t>System.String</t>
@@ -71,250 +113,186 @@
     <t>Text</t>
   </si>
   <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>Columns</t>
-  </si>
-  <si>
-    <t>Required</t>
-  </si>
-  <si>
-    <t>VisibilityCondition</t>
-  </si>
-  <si>
-    <t>DefaultValue</t>
-  </si>
-  <si>
-    <t>Option</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>CSS</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>StartLabel</t>
-  </si>
-  <si>
-    <t>EndLabel</t>
-  </si>
-  <si>
-    <t>OptionController</t>
-  </si>
-  <si>
-    <t>RefreshComponents</t>
+    <t>System.Int32</t>
+  </si>
+  <si>
+    <t>Spin</t>
+  </si>
+  <si>
+    <t>System.DateTimeOffset</t>
+  </si>
+  <si>
+    <t>DateTime</t>
   </si>
   <si>
     <t>System.Boolean</t>
   </si>
   <si>
+    <t>CheckBox</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>ETL_Logs</t>
+  </si>
+  <si>
+    <t>ETL Logs</t>
+  </si>
+  <si>
+    <t>Form.LogManager</t>
+  </si>
+  <si>
+    <t>Workload</t>
+  </si>
+  <si>
+    <t>ETL Workload</t>
+  </si>
+  <si>
+    <t>[Form.Workload]</t>
+  </si>
+  <si>
+    <t>[Form.Workload.Id, Form.Workload.JobName, Form.Workload.AppID, Form.Workload.RunID, Form.Workload.StartTime, Form.Workload.Success]</t>
+  </si>
+  <si>
+    <t>JobName</t>
+  </si>
+  <si>
+    <t>Job Name</t>
+  </si>
+  <si>
+    <t>AppID</t>
+  </si>
+  <si>
+    <t>DataFlow ID</t>
+  </si>
+  <si>
+    <t>RunID</t>
+  </si>
+  <si>
+    <t>Run ID</t>
+  </si>
+  <si>
+    <t>StartTime</t>
+  </si>
+  <si>
+    <t>Start Time</t>
+  </si>
+  <si>
+    <t>EndTime</t>
+  </si>
+  <si>
+    <t>End Time</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>ExtractTaskEntries</t>
+  </si>
+  <si>
+    <t>Extract Log Information</t>
+  </si>
+  <si>
+    <t>[Form.ExtractTask]</t>
+  </si>
+  <si>
+    <t>[Form.ExtractTask.Id, Form.ExtractTask.SchemaName,Form.ExtractTask.TableName,Form.ExtractTask.StartTime,Form.ExtractTask.Success]</t>
+  </si>
+  <si>
+    <t>LoadTaskEntries</t>
+  </si>
+  <si>
+    <t>Load Log Information</t>
+  </si>
+  <si>
+    <t>[Form.LoadTask]</t>
+  </si>
+  <si>
+    <t>[Form.LoadTask.Id, Form.LoadTask.SchemaName,Form.LoadTask.TableName,Form.LoadTask.StartTime,Form.LoadTask.Success]</t>
+  </si>
+  <si>
+    <t>DataSource</t>
+  </si>
+  <si>
+    <t>Data Source</t>
+  </si>
+  <si>
+    <t>Form.DataSources</t>
+  </si>
+  <si>
+    <t>SchemaName</t>
+  </si>
+  <si>
+    <t>Schema</t>
+  </si>
+  <si>
+    <t>TableName</t>
+  </si>
+  <si>
+    <t>Table Name</t>
+  </si>
+  <si>
+    <t>ExtractCount</t>
+  </si>
+  <si>
+    <t>UpdateCount</t>
+  </si>
+  <si>
+    <t>Update Count</t>
+  </si>
+  <si>
+    <t>InsertCount</t>
+  </si>
+  <si>
+    <t>Insert Count</t>
+  </si>
+  <si>
+    <t>DeleteCount</t>
+  </si>
+  <si>
+    <t>Delete Count</t>
+  </si>
+  <si>
+    <t>DataSources</t>
+  </si>
+  <si>
+    <t>Data Source 1</t>
+  </si>
+  <si>
+    <t>Data Source 2</t>
+  </si>
+  <si>
+    <t>Data Source 3</t>
+  </si>
+  <si>
+    <t>Data Source 4</t>
+  </si>
+  <si>
+    <t>Data Source 5</t>
+  </si>
+  <si>
+    <t>Data Source 6</t>
+  </si>
+  <si>
+    <t>Data Source 7</t>
+  </si>
+  <si>
+    <t>Data Source 8</t>
+  </si>
+  <si>
+    <t>Data Source 9</t>
+  </si>
+  <si>
     <t>Other</t>
-  </si>
-  <si>
-    <t>ETL Logs</t>
-  </si>
-  <si>
-    <t>Form.LogManager</t>
-  </si>
-  <si>
-    <t>System.Int32</t>
-  </si>
-  <si>
-    <t>Spin</t>
-  </si>
-  <si>
-    <t>JobName</t>
-  </si>
-  <si>
-    <t>Job Name</t>
-  </si>
-  <si>
-    <t>StartTime</t>
-  </si>
-  <si>
-    <t>EndTime</t>
-  </si>
-  <si>
-    <t>Start Time</t>
-  </si>
-  <si>
-    <t>End Time</t>
-  </si>
-  <si>
-    <t>System.DateTimeOffset</t>
-  </si>
-  <si>
-    <t>Success</t>
-  </si>
-  <si>
-    <t>CheckBox</t>
-  </si>
-  <si>
-    <t>TableName</t>
-  </si>
-  <si>
-    <t>UpdateCount</t>
-  </si>
-  <si>
-    <t>InsertCount</t>
-  </si>
-  <si>
-    <t>DeleteCount</t>
-  </si>
-  <si>
-    <t>Table Name</t>
-  </si>
-  <si>
-    <t>Update Count</t>
-  </si>
-  <si>
-    <t>Insert Count</t>
-  </si>
-  <si>
-    <t>Delete Count</t>
-  </si>
-  <si>
-    <t>ExtractCount</t>
-  </si>
-  <si>
-    <t>Load Log Information</t>
-  </si>
-  <si>
-    <t>Extract Log Information</t>
-  </si>
-  <si>
-    <t>DataSource</t>
-  </si>
-  <si>
-    <t>Data Source</t>
-  </si>
-  <si>
-    <t>DateTime</t>
-  </si>
-  <si>
-    <t>AppID</t>
-  </si>
-  <si>
-    <t>DataFlow ID</t>
-  </si>
-  <si>
-    <t>RunID</t>
-  </si>
-  <si>
-    <t>Run ID</t>
-  </si>
-  <si>
-    <t>SchemaName</t>
-  </si>
-  <si>
-    <t>Schema</t>
-  </si>
-  <si>
-    <t>ETL_Logs</t>
-  </si>
-  <si>
-    <t>Data Source 1</t>
-  </si>
-  <si>
-    <t>Data Source 2</t>
-  </si>
-  <si>
-    <t>Data Source 3</t>
-  </si>
-  <si>
-    <t>Data Source 4</t>
-  </si>
-  <si>
-    <t>Data Source 5</t>
-  </si>
-  <si>
-    <t>Data Source 6</t>
-  </si>
-  <si>
-    <t>Data Source 7</t>
-  </si>
-  <si>
-    <t>Data Source 8</t>
-  </si>
-  <si>
-    <t>Data Source 9</t>
-  </si>
-  <si>
-    <t>Workload</t>
-  </si>
-  <si>
-    <t>ETL Workload</t>
-  </si>
-  <si>
-    <t>[Form.Workload]</t>
-  </si>
-  <si>
-    <t>[Form.Workload.Id, Form.Workload.JobName, Form.Workload.AppID, Form.Workload.RunID, Form.Workload.StartTime, Form.Workload.Success]</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>DataSources</t>
-  </si>
-  <si>
-    <t>Form.DataSources</t>
-  </si>
-  <si>
-    <t>[Form.ExtractTask]</t>
-  </si>
-  <si>
-    <t>[Form.LoadTask]</t>
-  </si>
-  <si>
-    <t>ExtractTaskEntries</t>
-  </si>
-  <si>
-    <t>[Form.ExtractTask.Id, Form.ExtractTask.SchemaName,Form.ExtractTask.TableName,Form.ExtractTask.StartTime,Form.ExtractTask.Success]</t>
-  </si>
-  <si>
-    <t>LoadTaskEntries</t>
-  </si>
-  <si>
-    <t>[Form.LoadTask.Id, Form.LoadTask.SchemaName,Form.LoadTask.TableName,Form.LoadTask.StartTime,Form.LoadTask.Success]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -334,95 +312,9 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.24994659260841701"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1" tint="0.24994659260841701"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="1" tint="0.24994659260841701"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="7"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="42"/>
-      <color theme="7"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9.5"/>
-      <color theme="1" tint="0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1" tint="0.24994659260841701"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="0"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -435,25 +327,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59996337778862885"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -476,128 +351,30 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="9" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="thin">
-        <color theme="9" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="7"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
+  </cellStyleXfs>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="3" applyFill="0" applyProtection="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="14">
-    <cellStyle name="Activity" xfId="4" xr:uid="{0EBDFCA9-A444-4E6C-B0F0-99A6F392B25E}"/>
-    <cellStyle name="Heading 1 2" xfId="3" xr:uid="{3AC88AEC-B778-4BC9-932B-A2371776A50A}"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Label" xfId="7" xr:uid="{D56EBE8C-563C-46A9-A8DE-B8A4798EC314}"/>
-    <cellStyle name="Neutral 2" xfId="10" xr:uid="{8CEF67ED-03F4-46BA-A9AF-0AE530165544}"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="11" xr:uid="{1CDBE95F-25EE-487A-B2B3-4A03E79276FF}"/>
-    <cellStyle name="Normal 3" xfId="12" xr:uid="{1D3EF3F2-C58D-498F-BAEA-91EABC8D91BA}"/>
-    <cellStyle name="Normal 4" xfId="2" xr:uid="{9464A6A3-A133-43B2-B90B-2E5895784D99}"/>
-    <cellStyle name="Percent Complete" xfId="8" xr:uid="{A15E6CBE-9CBD-4199-8F4B-EFD35C406272}"/>
-    <cellStyle name="Period Headers" xfId="5" xr:uid="{04FE4268-BD41-4CEC-818E-8F96753A6E7C}"/>
-    <cellStyle name="Period Highlight Control" xfId="9" xr:uid="{D0343E8F-242D-4AEC-ACB2-D67E0353295C}"/>
-    <cellStyle name="Project Headers" xfId="6" xr:uid="{A221F3E0-DAC8-47AB-8957-1FB33749DCD6}"/>
-    <cellStyle name="Style 1" xfId="13" xr:uid="{0C711836-BCBF-4114-8BA6-781DD7DB862B}"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -614,22 +391,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>114297</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
       <xdr:row>115</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86DEFF4F-757E-4368-9C74-2022DFABCAD7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE644ACD-7CA9-433F-9B31-31C0824197BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -637,8 +414,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="485775" y="495297"/>
-          <a:ext cx="13144500" cy="21459827"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8930639" cy="21153120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -673,16 +450,16 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Forms ReadMe</a:t>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DataPortals ReadMe</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -710,8 +487,214 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>This Readme is a quick summary of all of the options available in Composable Forms to customize your forms.</a:t>
-          </a:r>
+            <a:t>This Readme is a quick summary of all the options available in Composable DataPortals to customize your data models.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>For a more complete description, please review the docs at </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>https://docs.composable.ai</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Excel Workbook Sheet Structure</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Master</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:  This is the first sheet that is processed in this</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DataPortals Model File and acts as a link to all other container sheets that will ultimately be shown to the end user.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Master.settings: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(optional) The settings sheet allows for some customization of DataPortal actions. A settings sheet has two columns, Option and Value.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ettings defined in the Master.settings sheet will apply for the entire DataPortal.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -738,35 +721,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Excel Sheet Structure</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Master:  This is the first sheet that is processed in forms and acts as a link to all other container sheets that will ultimately be shown to the end user.</a:t>
+            <a:t>“</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Container</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>”:  These can be any name that is not reserved and specify what input fields are listed out in each web page the user sees, as well as any controlling logic of how they are saved and displayed.  In the server, each input field name represents a column in an SQL table.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -794,7 +773,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>“Container”:  These can be any name that is not reserved and specify what input fields are listed out in each web page the user sees, as well as any controlling logic of how they are saved and displayed.  In the server, each input field name represents a column in an SQL table.</a:t>
+            <a:t>“</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Category</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>":  These specify a single picklist for the end user, such as Gender or State you live in.  They can be in its own sheet or in the Categories sheet.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -813,16 +816,28 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>“Category":  These specify a single picklist for the end user, such as Gender or State you live in.  They can be in its own sheet or in the Categories sheet.</a:t>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Categories</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: On this sheet, each column represents its own category to simplify the excel structure if you have a lot of categories in your form.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -841,16 +856,28 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Categories: On this sheet, each column represents its own category to simplify the excel structure if you have a lot of categories in your form.</a:t>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ReadMe</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: This sheet is not processed or displayed to the end user of forms, it is a place to store notes and comments on the form. </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -869,17 +896,40 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ReadMe: This sheet is not processed or displayed to the end user of forms, it is a place to store notes and comments on the form. </a:t>
-          </a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CSS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:  An optional sheet to enter custom CSS rules to style the DataPortals web interface with any colors, margins or other style behavior. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -897,30 +947,42 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>CSS:  An option for the user to enter custom CSS rules to style the forms page with any colors, margins or other style behavior they would like. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>	</a:t>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Control Definitions</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Note</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: Fields with an (*) are required to process a sheet.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -948,21 +1010,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Control Definitions</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>* Fields with an (*) are required to process a sheet.</a:t>
+            <a:t>*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Name</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:­­ This is the name of the variable that is saved in the database.  The name must be unique on the page and cannot be ID or the sheet name.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -981,16 +1053,28 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>*Name:­­ This is the name of the variable that is saved in the database.  The name must be unique on the page and cannot be ID or the sheet name.</a:t>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DisplayName</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: This is the name displayed to the end user as a label above the input field.  If left blank, the name field is used.  If “NoDisplayName” is used, the label is left blank.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1009,16 +1093,28 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>DisplayName: This is the name displayed to the end user as a label above the input field.  If left blank, the name field is used.  If “NoDisplayName” is used, the label is left blank.</a:t>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Description</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: This is optional extra information displayed to the user if they hover over an info (i) icon above the input field.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1046,7 +1142,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Description: This is optional extra information displayed to the user if they hover over an info (I) icon above the input field.</a:t>
+            <a:t>*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Type</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:  This is the variable that the input field represents in the database.  There are three main types of values you can put in this field: system types, such as System.String; category types, which represent a sort of picklist; container types, which represent a link to another page or table if it’s a one to many relationships.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1074,7 +1194,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>*Type:  This is the variable that the input field represents in the database.  There are three main types of values you can put in this field: system types, such as System.String; category types, which represent a sort of picklist; container types, which represent a link to another page or table if it’s a one to many relationships.</a:t>
+            <a:t>*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ControlType</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:  This field determines how the input field is displayed to the end user and must match the type on the backend.  </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1093,16 +1237,444 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>*ControlType:  This field determines how the input field is displayed to the end user and must match the type on the backend.  </a:t>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AppRun</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: Specifies a button that runs a Composable DataFlow Application given the DataFlow's AppID.  Not an input type. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Boolean</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: Checkbox for Boolean types.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Category</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: Picklist for Category types.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DateTime</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: UI picker for a date type.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Decimal</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: Decimal input field.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Integer</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: Integer input field.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Label</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: A string input that can be styled by having the DisplayName be processed as markdown. Not an input type.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MultiCategory</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: Picklist Category types where multiple selections can be made. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Page</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: Link to a signle child Container types. Not an input type.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Spin</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: Supported for numeric types, offers a spin clicker UI for cycling through valid numbers. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SSN</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: Only allows valid SSN entries to be saved. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>String</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: String input field.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tab</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: Specifies a tab to be displayed on the page to control visibility between items. Not an input type.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Table</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: A link to many of the same child Container types.  New child containers can be created, but otherwise not an input type.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Textarea</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: Larger string input field.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Telephone</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: Only allows valid telephone entries to be saved.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Voice</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: Experimental, a Larger string input field that allows voice input.  Only supported in Chrome.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1121,240 +1693,28 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>AppRun: Specifies a button that runs a composable app by AppID.  Not an input type. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Boolean: Checkbox for Boolean types.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Category: Picklist for Category types.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>DateTime: UI picker for a date type.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Decimal: Decimal input field.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Integer: Integer input field.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Label: A string input that can be styled by having the DisplayName be processed as markdown. Not an input type.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>MultiCategory: Picklist Category types where multiple selections can be made. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Page: Link to a signle child Container types. Not an input type.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Spin: Supported for numeric types, offers a spin clicker UI for cycling through valid numbers. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>SSN: Only allows valid SSN entries to be saved. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>String: String input field.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Tab: Specifies a tab to be displayed on the page to control visibility between items. Not an input type.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Table: A link to many of the same child Container types.  New child containers can be created, but otherwise not an input type.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Textarea: Larger string input field.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Telephone: Only allows valid telephone entries to be saved.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Voice: Experimental, a Larger string input field that allows voice input.  Only supported in Chrome.</a:t>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Columns</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: Only processed for the Table ControlType.  Specifies what columns in the child sheets appear in the table for the user.  Using JSON notation, have the option to rename the column names from their defaults.  If left blank, only each record ID is shown in the table.  </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1373,30 +1733,28 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Columns: Only processed for the Table ControlType.  Specifies what columns in the child sheets appear in the table for the user.  Using JSON notation, have the option to rename the column names from their defaults.  If left blank, only each record ID is shown in the table.  </a:t>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SearchBoxes</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:  Only processed for the Table ControlType.  If value is “True”, a search box appears below each column header in the Table.  </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1415,16 +1773,28 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>SearchBoxes:  Only processed for the Table ControlType.  If value is “True”, a search box appears below each column header in the Table.  </a:t>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Min</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:  Only processed for numeric or date-time types, defines a lower bound on the value that can be stored in the database.  A warning is given to the user if the input is invalid.  </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1443,16 +1813,28 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Min:  Only processed for numeric or date-time types, defines a lower bound on the value that can be stored in the database.  A warning is given to the user if the input is invalid.  </a:t>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Max</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: Only processed for numeric or date-time types, defines an upper bound on the value that can be stored in the database.  A warning is given to the user if the input is invalid.  </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1471,16 +1853,28 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Max: Only processed for numeric or date-time types, defines an upper bound on the value that can be stored in the database.  A warning is given to the user if the input is invalid.  </a:t>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>StrMin</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: Only processed for System.String, defines a lower bound on the number of characters that can be stored in the database. A default value satisfying this min length must be provided to use this field. A warning is given to the user if the input is invalid.  </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1499,16 +1893,28 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>StrMin: Only processed for System.String, defines a lower bound on the number of characters that can be stored in the database. A default value satisfy this min length must be provided to use this field. A warning is given to the user if the input is invalid.  </a:t>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>StrMax</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: Only processed for System.String, defines an upper bound on the number of characters that can be stored in the database.  A warning is given to the user if the input is invalid.  </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1527,16 +1933,28 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>StrMax: Only processed for System.String, defines an upper bound on the number of characters that can be stored in the database.  A warning is given to the user if the input is invalid.  </a:t>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>VisibilityCondition</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: Checks the value of another input field on the page to see if this field is displayed to the user.  Supports Boolean logic ANDs (&amp;&amp;), ORs (||) and parenthesis.  If the check returns false, the input is not displayed to the user. </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1555,16 +1973,28 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>VisibilityCondition: Checks the value of another input field on the page to see if this field is displayed to the user.  Supports Boolean logic ands (&amp;&amp;), ors (||) and parenthesis.  If the check returns false, the input is not displayed to the user. </a:t>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MaskedCondition</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: Checks the value of another input field on the page to see if this field is displayed to the user like visibility condition, but instead of not displayed the item, masks the item and shows white space where the input field normally is</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1583,16 +2013,28 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>MaskedCondition: Checks the value of another input field on the page to see if this field is displayed to the user like visibility condition, but instead of not displayed the item, masks the item and shows white space where the input field normally is</a:t>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OptionController</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: Uses a pipe separated list to determine visibility conditions for a category controlType.  </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1611,16 +2053,28 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>OptionController: Uses a pipe separated list to determine visibility conditions for a category controlType.  </a:t>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ReadOnlyCondition</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: Processed on all input types.  If set to “True”, the input field is grayed out and only data prepopulated in forms will be displayed.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1639,16 +2093,28 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ReadOnlyCondition: Processed on all input types.  If set to “True”, the input field is grayed out and only data prepopulated in forms will be displayed.</a:t>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DeleteType</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: Only processed for containers. If set to “Soft”, the record is still saved in the database on delete.  </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1667,16 +2133,28 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>DeleteType: Only processed for containers. If set to “Soft”, the record is still saved in the database on delete.  </a:t>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DefaultValue</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:  Processed on all input types, sets the value that the user first sees. </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1695,16 +2173,28 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>DefaultValue:  Processed on all input types, sets the value that the user first sees. </a:t>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Required</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: Processed on all input types.  If set to “True”, a user must supply a value for the page to be saved.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1723,16 +2213,28 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Required: Processed on all input types.  If set to “True”, a user must supply a value for the page to be saved.</a:t>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Group</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: Processed on everything displayed on the screen, specifying which group &lt;div&gt; it is displayed within.  Groups are processed top-down.  Nesting of items in a group is achieved with separating group names with a “.” while horizontally laying out elements in a div is achieved by ending the group names with H or HC for horizontal and horizontally centered respectively.  Ending a group name with T and a digit 1-12 will place the field in a horizontal row, always taking up increments of 1/12 of the width of the page.  </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1751,44 +2253,28 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Group: Processed on everything displayed on the screen, specifying which group &lt;div&gt; it is displayed within.  Groups are processed top-down.  Nesting of items in a group is achieved with separating group names with a “.” while horizontally laying out elements in a div is achieved by ending the group names with H or HC for horizontal and horizontally centered respectively.  Ending a group name with T and a digit 1-12 will place the field in a horizontal row, always taking up increments of 1/12 of the width of the page.  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ControlGroup: Only processed for the Tab Control Type.  Specifies which group in the Group column is displayed when the tab is selected.  Overrides visibility conditions.</a:t>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ControlGroup</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: Only processed for the Tab Control Type.  Specifies which group in the Group column is displayed when the tab is selected.  Overrides visibility conditions.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1824,19 +2310,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -2906,7 +3380,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -2918,7 +3392,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -2935,9 +3409,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -2987,9 +3461,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -3185,29 +3659,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00407D7-DDE3-404C-A1F6-A572A9FBC7B4}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF9EF7A-B8DE-469A-B3AA-A0ED78604A92}">
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="14.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.9453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.05078125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.68359375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{063C4434-59D8-40C4-BB34-BD46DDB99F8A}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -3215,55 +3742,67 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="23.47265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7890625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="23.15625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.15625" customWidth="1"/>
+    <col min="1" max="1" width="25.62890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21CBA784-CD4A-4327-88EF-247A1C5DF1F2}">
   <sheetPr>
-    <tabColor theme="4" tint="-0.249977111117893"/>
+    <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -3271,65 +3810,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.47265625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <tabColor theme="2" tint="-9.9978637043366805E-2"/>
-  </sheetPr>
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="58" customWidth="1"/>
+    <col min="1" max="1" width="55.1015625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="228.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="4"/>
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="228.85" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3337,69 +3827,62 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A7D442-4D58-4BE5-88C8-37FAF1A8C530}">
   <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
+    <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.3671875" customWidth="1"/>
-    <col min="2" max="2" width="18.20703125" customWidth="1"/>
-    <col min="3" max="3" width="12.20703125" customWidth="1"/>
-    <col min="4" max="4" width="17.41796875" customWidth="1"/>
-    <col min="5" max="5" width="11.7890625" customWidth="1"/>
-    <col min="6" max="6" width="65.5234375" customWidth="1"/>
+    <col min="1" max="5" width="20.578125" customWidth="1"/>
+    <col min="6" max="6" width="99.83984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>16</v>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3407,397 +3890,375 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF0002D-1458-43E6-BEB2-4058BE9247E8}">
   <sheetPr>
-    <tabColor theme="4" tint="0.79998168889431442"/>
+    <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AI10" sqref="AI10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="23.26171875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5234375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7890625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="8.734375" style="6"/>
-    <col min="9" max="9" width="16.15625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.734375" style="6"/>
+    <col min="1" max="6" width="20.578125" customWidth="1"/>
+    <col min="7" max="7" width="3.89453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.20703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7890625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.1015625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.68359375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.89453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.05078125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="11" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="N1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="11" t="s">
+      <c r="O1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:19" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
         <v>52</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B9" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+      <c r="D9" t="s">
         <v>54</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-    </row>
-    <row r="6" spans="1:19" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-    </row>
-    <row r="7" spans="1:19" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-    </row>
-    <row r="8" spans="1:19" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>80</v>
-      </c>
-    </row>
+    </row>
+    <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD7F102-7602-4A12-818F-5978B4ED075A}">
   <sheetPr>
-    <tabColor theme="9" tint="0.79998168889431442"/>
+    <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="18" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5234375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.734375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="27.734375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="14.734375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="53.62890625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.15625" style="5"/>
-    <col min="9" max="9" width="18.15625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="36.734375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="10.5234375" style="5" customWidth="1"/>
-    <col min="12" max="12" width="9.15625" style="5"/>
-    <col min="13" max="13" width="14.15625" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="9.15625" style="5"/>
+    <col min="1" max="5" width="20.578125" customWidth="1"/>
+    <col min="6" max="6" width="3.89453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.20703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7890625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1015625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.68359375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.89453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.05078125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="6" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="5" t="s">
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B2" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="12" t="s">
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E8" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3806,188 +4267,186 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7D3354-BF32-4840-9060-96C5B5D9DA53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{531E6F47-EE32-49EE-A716-AF8175CD968A}">
   <sheetPr>
-    <tabColor theme="9" tint="0.79998168889431442"/>
+    <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.15625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.62890625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19.7890625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="27.734375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="14.734375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="8.3671875" style="5" customWidth="1"/>
-    <col min="7" max="8" width="9.15625" style="5"/>
-    <col min="9" max="9" width="18.15625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="36.734375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="10.5234375" style="5" customWidth="1"/>
-    <col min="12" max="12" width="9.15625" style="5"/>
-    <col min="13" max="13" width="14.15625" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="9.15625" style="5"/>
+    <col min="1" max="5" width="20.578125" customWidth="1"/>
+    <col min="6" max="6" width="3.89453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.20703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7890625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1015625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.68359375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.89453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.05078125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="M1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="11" t="s">
+      <c r="N1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="O1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="11" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="E2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E9" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3996,7 +4455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304AACA2-203C-473A-96D8-51F5561796F8}">
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
   </sheetPr>
@@ -4004,69 +4463,64 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="32.26171875" style="5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="28.3671875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="5" t="s">
-        <v>62</v>
+      <c r="A5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="5" t="s">
-        <v>63</v>
+      <c r="A6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="5" t="s">
-        <v>64</v>
+      <c r="A7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="5" t="s">
-        <v>65</v>
+      <c r="A8" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="5" t="s">
-        <v>66</v>
+      <c r="A9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="5" t="s">
-        <v>67</v>
+      <c r="A10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="5" t="s">
-        <v>24</v>
+      <c r="A11" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>